--- a/Visit Notes QA/QA VISIT NOTES.xlsx
+++ b/Visit Notes QA/QA VISIT NOTES.xlsx
@@ -3,11 +3,11 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-93" yWindow="-93" windowWidth="20186" windowHeight="13520" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="44880" yWindow="10380" windowWidth="23280" windowHeight="17520" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nizic" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Niz test copy" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -481,8 +481,8 @@
   <dimension ref="A1:V20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.35"/>
@@ -773,11 +773,6 @@
           <t>21</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
       <c r="M3" t="inlineStr">
         <is>
           <t>3</t>
@@ -1007,7 +1002,7 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -1052,7 +1047,7 @@
         </is>
       </c>
     </row>
-    <row r="7">
+    <row r="7" ht="409.6" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
           <t>Visit</t>
@@ -1133,7 +1128,7 @@
           <t>3</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" s="1" t="inlineStr">
         <is>
           <t>confusion_mod
 edema_mild
@@ -1141,10 +1136,12 @@
 muskulo_weakness_mild</t>
         </is>
       </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>cardio_other_obsBLE pitting edema 1+
-narrative_txtPatient awake, oriented x1 person, verbally responsive with moderate confusion. Patient noted with increased cognitive decline, difficulty remembering events or people. Patient denies pain and no pain symptoms observed. Patient is fatigued, has mild dyspnea upon exertion. No coughing noted. Lungs CTA. Abdomen soft, nontender, continues to have regular BM. Bilateral ankles and feet 1+ pitting edema. Continues on Lasix 40mg BID and potassium 20meq BID well tolerated and effective treatment for fluid overload symptoms to patient comfort. Compression stocking on during the day. Encouraged to elevated lower extremities while in recliner sofa chair or bed. Consumes 25%-50% of meals. Muscle wasting to upper extremities noted.  Emotional support and active listening provided. Teaching provided for pain management, skin and bowel maintenance, fall precaution, cardiovascular and respiratory maintenance, and covid19 prevention. Instructed staff to inform Art of Hospice Care for any change in condition. Patient well palliated upon departure.</t>
+      <c r="R7" s="1" t="inlineStr">
+        <is>
+          <t>other_obs_neuroPatient remains alert oriented x1, forgetful and confused. Verbally responsive.
+cardio_other_obsPatient denies chest pain or discomfort at this time, noted bilateral lower extremities pitting edema 1+ pt is lying in bed, her legs are elevated with pillows and wearing stockings socks as ordered. 
+muskulo_other_obs_txtPatient ambulates with walker under supervision, due to increased fatigue and weakness.
+narrative_txtReceived patient in bed ,awake, oriented x1 person, verbally responsive. Patient denies pain, no signs of pain noted. No coughing or congestion noted. Lungs CTA. Abdomen soft, nontender, continues to have regular BM. Continues on Lasix 40mg BID and potassium 20meq BID, well tolerated. No falls or skin issues reported. Reinforced education to staff regarding pain management, skin and bowel maintenance, fall precaution, cardiovascular and respiratory maintenance, and covid19 prevention. Encouraged staff to inform Art of Hospice Care for any change in condition. Patient well palliated upon departure. Plan of care collaborated with RNCM.</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
@@ -1234,7 +1231,7 @@
           <t>3</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" s="1" t="inlineStr">
         <is>
           <t>confusion_mod
 edema_mod
@@ -1243,18 +1240,12 @@
 non_ambulatory</t>
         </is>
       </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>narrative_txtReceived patient in the dining room area 
- having lunch, pleasant, cooperative, talkative, denies 
- pain, facial expressions are relaxed. Per med tech at 
- POS, no falls or hospitalization reported at this time, 
- no skin issues .No medications for refill needed this 
- visit. Reinforced education on COVID prevention, pain 
- regimen, bowel maintenance, fall/safety, and skin maintenance 
- and treatment. Instructed CG to inform AOHC for any questions, 
- concerns, or changes in condition. Patient remains well 
- palliated, Plan of care collaborated with RNCM.</t>
+      <c r="R8" s="1" t="inlineStr">
+        <is>
+          <t>other_obs_neuroPatient remains alert oriented x1, forgetful and confused. Verbally responsive.
+cardio_other_obsPatient denies chest pain or discomfort at this time, noted bilateral lower extremities pitting edema 1+ pt is lying in bed, her legs are elevated with pillows and wearing stockings socks as ordered. 
+muskulo_other_obs_txtPatient ambulates with walker under supervision, due to increased fatigue and weakness.
+narrative_txtReceived patient in bed ,awake, oriented x1 person, verbally responsive. Patient denies pain, no signs of pain noted. No coughing or congestion noted. Lungs CTA. Abdomen soft, nontender, continues to have regular BM. Continues on Lasix 40mg BID and potassium 20meq BID, well tolerated. No falls or skin issues reported. Reinforced education to staff regarding pain management, skin and bowel maintenance, fall precaution, cardiovascular and respiratory maintenance, and covid19 prevention. Encouraged staff to inform Art of Hospice Care for any change in condition. Patient well palliated upon departure. Plan of care collaborated with RNCM.</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
@@ -1321,10 +1312,8 @@
           <t>21</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="L9" t="n">
+        <v>1</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -1355,25 +1344,12 @@
 non_ambulatory</t>
         </is>
       </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>narrative_txtPatient awake, oriented x1 person, verbally 
- responsive with moderate confusion. Patient denies 
- pain and no pain symptoms observed. Patient is fatigued, 
- has dyspnea upon exertion. No coughing noted. Lungs CTA. 
- Abdomen soft, nontender, continues to have regular BM. 
- Bilateral ankles and feet 2+ edema. Continues on Lasix 
- 40mg BID and potassium 20meq BID. Compression stocking 
- on. Elevated lower extremities in sofa chair. Appetite 
- is poor, consumes 25% of meals. Face is gaunt, muscle wasting 
- to extremities noted. Patient continues to get significantly 
- weaker. Getting much harder for her to ambulate and bear 
- weight. Emotional support and active listening provided. 
- Teaching provided for pain management, skin and bowel 
- maintenance, fall precaution, cardiovascular and respiratory 
- maintenance, and covid19 prevention. Instructed staff 
- to inform Art of Hospice Care for any change in condition. 
- Patient well palliated upon departure.</t>
+      <c r="R9" s="1" t="inlineStr">
+        <is>
+          <t>other_obs_neuroPatient remains alert oriented x1, forgetful and confused. Verbally responsive.
+cardio_other_obsPatient denies chest pain or discomfort at this time, noted bilateral lower extremities pitting edema 1+ pt is lying in bed, her legs are elevated with pillows and wearing stockings socks as ordered. 
+muskulo_other_obs_txtPatient ambulates with walker under supervision, due to increased fatigue and weakness.
+narrative_txtReceived patient in bed ,awake, oriented x1 person, verbally responsive. Patient denies pain, no signs of pain noted. No coughing or congestion noted. Lungs CTA. Abdomen soft, nontender, continues to have regular BM. Continues on Lasix 40mg BID and potassium 20meq BID, well tolerated. No falls or skin issues reported. Reinforced education to staff regarding pain management, skin and bowel maintenance, fall precaution, cardiovascular and respiratory maintenance, and covid19 prevention. Encouraged staff to inform Art of Hospice Care for any change in condition. Patient well palliated upon departure. Plan of care collaborated with RNCM.</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
@@ -1465,7 +1441,7 @@
           <t>3</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" s="1" t="inlineStr">
         <is>
           <t>confusion_mod
 edema_mod
@@ -1474,19 +1450,12 @@
 non_ambulatory</t>
         </is>
       </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>narrative_txtReceived patient in the dinning room area 
- having breakfast, pleasant, cooperative, talkative, 
- denies pain, facial expressions are relaxed. Per med 
- tech at POS, no falls or hospitalization reported at this 
- time, no skin issues .No medications for refill needed 
- this visit. Reinforced education on COVID prevention, 
- pain regimen, bowel maintenance, fall/safety, and skin 
- maintenance and treatment. Instructed CG to inform AOHC 
- for any questions, concerns, or changes in condition. 
- Patient remains well palliated, Plan of care collaborated 
- with RNCM.</t>
+      <c r="R10" s="1" t="inlineStr">
+        <is>
+          <t>other_obs_neuroPatient remains alert oriented x1, forgetful and confused. Verbally responsive.
+cardio_other_obsPatient denies chest pain or discomfort at this time, noted bilateral lower extremities pitting edema 1+ pt is lying in bed, her legs are elevated with pillows and wearing stockings socks as ordered. 
+muskulo_other_obs_txtPatient ambulates with walker under supervision, due to increased fatigue and weakness.
+narrative_txtReceived patient in bed ,awake, oriented x1 person, verbally responsive. Patient denies pain, no signs of pain noted. No coughing or congestion noted. Lungs CTA. Abdomen soft, nontender, continues to have regular BM. Continues on Lasix 40mg BID and potassium 20meq BID, well tolerated. No falls or skin issues reported. Reinforced education to staff regarding pain management, skin and bowel maintenance, fall precaution, cardiovascular and respiratory maintenance, and covid19 prevention. Encouraged staff to inform Art of Hospice Care for any change in condition. Patient well palliated upon departure. Plan of care collaborated with RNCM.</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
